--- a/performance_results/performance_results.xlsx
+++ b/performance_results/performance_results.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Performance Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Average Performance Comparison" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +139,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <title>
       <tx>
@@ -149,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Performance Comparison - 2 Empty Cells</a:t>
+              <a:t>Performance Comparison - 3 Empty Cells</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -163,7 +163,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
+              <f>'Performance Results'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$31</f>
+              <f>'Performance Results'!$C$2:$C$31</f>
             </numRef>
           </val>
         </ser>
@@ -190,7 +190,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!D1</f>
+              <f>'Performance Results'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -208,7 +208,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$31</f>
+              <f>'Performance Results'!$D$2:$D$31</f>
             </numRef>
           </val>
         </ser>
@@ -217,7 +217,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!E1</f>
+              <f>'Performance Results'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -235,7 +235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$E$2:$E$31</f>
+              <f>'Performance Results'!$E$2:$E$31</f>
             </numRef>
           </val>
         </ser>
@@ -244,7 +244,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!F1</f>
+              <f>'Performance Results'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -262,7 +262,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$31</f>
+              <f>'Performance Results'!$F$2:$F$31</f>
             </numRef>
           </val>
         </ser>
@@ -333,7 +333,6 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <title>
       <tx>
@@ -344,7 +343,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Performance Comparison - 3 Empty Cells</a:t>
+              <a:t>Performance Comparison - 4 Empty Cells</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -358,7 +357,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!H1</f>
+              <f>'Performance Results'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -376,7 +375,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$H$2:$H$31</f>
+              <f>'Performance Results'!$H$2:$H$31</f>
             </numRef>
           </val>
         </ser>
@@ -385,7 +384,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!I1</f>
+              <f>'Performance Results'!I1</f>
             </strRef>
           </tx>
           <spPr>
@@ -403,7 +402,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$I$2:$I$31</f>
+              <f>'Performance Results'!$I$2:$I$31</f>
             </numRef>
           </val>
         </ser>
@@ -412,7 +411,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!J1</f>
+              <f>'Performance Results'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -430,7 +429,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$J$2:$J$31</f>
+              <f>'Performance Results'!$J$2:$J$31</f>
             </numRef>
           </val>
         </ser>
@@ -439,7 +438,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!K1</f>
+              <f>'Performance Results'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -457,7 +456,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$K$2:$K$31</f>
+              <f>'Performance Results'!$K$2:$K$31</f>
             </numRef>
           </val>
         </ser>
@@ -528,7 +527,6 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <title>
       <tx>
@@ -539,7 +537,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Performance Comparison - 4 Empty Cells</a:t>
+              <a:t>Performance Comparison - 5 Empty Cells</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -553,7 +551,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!M1</f>
+              <f>'Performance Results'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -571,7 +569,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$M$2:$M$31</f>
+              <f>'Performance Results'!$M$2:$M$31</f>
             </numRef>
           </val>
         </ser>
@@ -580,7 +578,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!N1</f>
+              <f>'Performance Results'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -598,7 +596,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$N$2:$N$31</f>
+              <f>'Performance Results'!$N$2:$N$31</f>
             </numRef>
           </val>
         </ser>
@@ -607,7 +605,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!O1</f>
+              <f>'Performance Results'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -625,7 +623,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$O$2:$O$31</f>
+              <f>'Performance Results'!$O$2:$O$31</f>
             </numRef>
           </val>
         </ser>
@@ -634,7 +632,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!P1</f>
+              <f>'Performance Results'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -652,7 +650,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$P$2:$P$31</f>
+              <f>'Performance Results'!$P$2:$P$31</f>
             </numRef>
           </val>
         </ser>
@@ -723,7 +721,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <title>
       <tx>
@@ -734,7 +731,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Performance Comparison - 5 Empty Cells</a:t>
+              <a:t>Performance Comparison - 6 Empty Cells</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -748,7 +745,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!R1</f>
+              <f>'Performance Results'!R1</f>
             </strRef>
           </tx>
           <spPr>
@@ -766,7 +763,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$R$2:$R$31</f>
+              <f>'Performance Results'!$R$2:$R$31</f>
             </numRef>
           </val>
         </ser>
@@ -775,7 +772,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!S1</f>
+              <f>'Performance Results'!S1</f>
             </strRef>
           </tx>
           <spPr>
@@ -793,7 +790,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$S$2:$S$31</f>
+              <f>'Performance Results'!$S$2:$S$31</f>
             </numRef>
           </val>
         </ser>
@@ -802,7 +799,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!T1</f>
+              <f>'Performance Results'!T1</f>
             </strRef>
           </tx>
           <spPr>
@@ -820,7 +817,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$T$2:$T$31</f>
+              <f>'Performance Results'!$T$2:$T$31</f>
             </numRef>
           </val>
         </ser>
@@ -829,7 +826,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!U1</f>
+              <f>'Performance Results'!U1</f>
             </strRef>
           </tx>
           <spPr>
@@ -847,7 +844,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet1'!$U$2:$U$31</f>
+              <f>'Performance Results'!$U$2:$U$31</f>
             </numRef>
           </val>
         </ser>
@@ -929,7 +926,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Performance Comparison - 6 Empty Cells</a:t>
+              <a:t>Average Performance Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -943,7 +940,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!W1</f>
+              <f>'Average Performance Comparison'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -959,9 +956,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>'Average Performance Comparison'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$W$2:$W$31</f>
+              <f>'Average Performance Comparison'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -970,7 +972,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!X1</f>
+              <f>'Average Performance Comparison'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -986,9 +988,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>'Average Performance Comparison'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$X$2:$X$31</f>
+              <f>'Average Performance Comparison'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -997,7 +1004,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!Y1</f>
+              <f>'Average Performance Comparison'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1013,9 +1020,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>'Average Performance Comparison'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$Y$2:$Y$31</f>
+              <f>'Average Performance Comparison'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -1024,7 +1036,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!Z1</f>
+              <f>'Average Performance Comparison'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1040,9 +1052,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>'Average Performance Comparison'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$Z$2:$Z$31</f>
+              <f>'Average Performance Comparison'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1064,7 +1081,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Trials</a:t>
+                  <a:t>Solver Type</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1091,7 +1108,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Performance Score</a:t>
+                  <a:t>Average Performance Score</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1117,7 +1134,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1139,7 +1156,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1161,7 +1178,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1183,7 +1200,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1201,23 +1218,28 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
+        <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,7 +1537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,125 +1548,100 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>exact_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>genetic_5_2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>genetic_10_2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>genetic_20_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>index_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>exact_3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>genetic_5_3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>genetic_10_3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>genetic_20_3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>index_4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>exact_4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>genetic_5_4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>genetic_10_4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>genetic_20_4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>index_5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>exact_5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>genetic_5_5</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>genetic_10_5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>genetic_20_5</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>index_6</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>exact_6</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>genetic_5_6</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>genetic_10_6</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>genetic_20_6</t>
         </is>
@@ -1658,76 +1655,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.005000591278076172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.01359772682189941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007577896118164062</v>
+        <v>0.02968597412109375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009506464004516602</v>
+        <v>0.01008415222167969</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003534793853759766</v>
+        <v>0.07324624061584473</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002973079681396484</v>
+        <v>0.02110147476196289</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01250910758972168</v>
+        <v>0.05556559562683105</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01513767242431641</v>
+        <v>0.009562253952026367</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0907745361328125</v>
+        <v>0.4633219242095947</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02405357360839844</v>
+        <v>0.2032244205474854</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08245730400085449</v>
+        <v>0.09384870529174805</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1403872966766357</v>
+        <v>0.2503571510314941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3892579078674316</v>
+        <v>6.213229417800903</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006570339202880859</v>
+        <v>0.8963742256164551</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04279088973999023</v>
+        <v>0.08142256736755371</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05388689041137695</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.982726097106934</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2786223888397217</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.138343334197998</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2439815998077393</v>
+        <v>0.07613706588745117</v>
       </c>
     </row>
     <row r="3">
@@ -1738,76 +1720,61 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.007541179656982422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001999139785766602</v>
+        <v>0.03031802177429199</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001006364822387695</v>
+        <v>0.01023149490356445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005032539367675781</v>
+        <v>0.0125277042388916</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01153993606567383</v>
+        <v>0.01251006126403809</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.02568483352661133</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01873230934143066</v>
+        <v>0.03297209739685059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03220534324645996</v>
+        <v>0.1001789569854736</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06514644622802734</v>
+        <v>0.8276481628417969</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02749800682067871</v>
+        <v>0.1013107299804688</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03981947898864746</v>
+        <v>0.1073365211486816</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02171564102172852</v>
+        <v>0.1478700637817383</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5210249423980713</v>
+        <v>6.266744136810303</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3110756874084473</v>
+        <v>0.6080422401428223</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02689075469970703</v>
+        <v>0.963247537612915</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1729865074157715</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.7550325393676758</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.034506797790527</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.2428936958312988</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.2861771583557129</v>
+        <v>0.1403539180755615</v>
       </c>
     </row>
     <row r="4">
@@ -1818,76 +1785,61 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009987354278564453</v>
+        <v>0.005564212799072266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01601982116699219</v>
+        <v>0.004506111145019531</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002025842666625977</v>
+        <v>0.0436866283416748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004530906677246094</v>
+        <v>0.01365160942077637</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008002281188964844</v>
+        <v>0.03603029251098633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01409745216369629</v>
+        <v>0.01866960525512695</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007461309432983398</v>
+        <v>0.05195999145507812</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02401614189147949</v>
+        <v>0.02768611907958984</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09804773330688477</v>
+        <v>0.238598108291626</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002999067306518555</v>
+        <v>0.4955141544342041</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03132724761962891</v>
+        <v>0.0255587100982666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04754424095153809</v>
+        <v>0.2508690357208252</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2613129615783691</v>
+        <v>4.01381254196167</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1117751598358154</v>
+        <v>1.658277034759521</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06173372268676758</v>
+        <v>0.08839941024780273</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18300461769104</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.259104251861572</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.472534894943237</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.06685709953308105</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.1708393096923828</v>
+        <v>0.1701099872589111</v>
       </c>
     </row>
     <row r="5">
@@ -1898,76 +1850,61 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006000280380249023</v>
+        <v>0.006003141403198242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004003763198852539</v>
+        <v>0.007591009140014648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003004312515258789</v>
+        <v>0.01047420501708984</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005508661270141602</v>
+        <v>0.06849551200866699</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03479790687561035</v>
+        <v>0.08660721778869629</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005567789077758789</v>
+        <v>0.02680754661560059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007510662078857422</v>
+        <v>0.08854889869689941</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007048368453979492</v>
+        <v>0.3767244815826416</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06641626358032227</v>
+        <v>0.01609611511230469</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04766201972961426</v>
+        <v>0.06106400489807129</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05275607109069824</v>
+        <v>0.1755743026733398</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6264884471893311</v>
+        <v>6.605696201324463</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3452515602111816</v>
+        <v>0.5131688117980957</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06257748603820801</v>
+        <v>0.2908987998962402</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1548848152160645</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.405121564865112</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.121390342712402</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.03157949447631836</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.7534537315368652</v>
+        <v>0.1239125728607178</v>
       </c>
     </row>
     <row r="6">
@@ -1978,76 +1915,61 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.005000829696655273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009507417678833008</v>
+        <v>0.01701760292053223</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00352025032043457</v>
+        <v>0.009997367858886719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01250863075256348</v>
+        <v>0.01606655120849609</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.08796787261962891</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005124092102050781</v>
+        <v>0.02413439750671387</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02902102470397949</v>
+        <v>0.0230710506439209</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01602482795715332</v>
+        <v>0.05030083656311035</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1089489459991455</v>
+        <v>0.1347801685333252</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1017136573791504</v>
+        <v>0.02609777450561523</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04105091094970703</v>
+        <v>0.05847549438476562</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02546310424804688</v>
+        <v>0.3281347751617432</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5066418647766113</v>
+        <v>6.64199161529541</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01907444000244141</v>
+        <v>0.281320333480835</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3353450298309326</v>
+        <v>0.05557394027709961</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2040596008300781</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.234069585800171</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4180243015289307</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.2396645545959473</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.05376386642456055</v>
+        <v>0.1534545421600342</v>
       </c>
     </row>
     <row r="7">
@@ -2058,76 +1980,61 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001569986343383789</v>
+        <v>0.01107525825500488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002504348754882812</v>
+        <v>0.06056332588195801</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005986452102661133</v>
+        <v>0.02208423614501953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01253628730773926</v>
+        <v>0.002600431442260742</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004506349563598633</v>
+        <v>0.03795647621154785</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03353619575500488</v>
+        <v>0.1003415584564209</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01302242279052734</v>
+        <v>0.008471488952636719</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01502156257629395</v>
+        <v>0.05026626586914062</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005970954895019531</v>
+        <v>0.07251858711242676</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1056647300720215</v>
+        <v>0.2103908061981201</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01701784133911133</v>
+        <v>0.06481003761291504</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02767157554626465</v>
+        <v>0.05577921867370605</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1507384777069092</v>
+        <v>3.041030645370483</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6588551998138428</v>
+        <v>0.06035208702087402</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03723049163818359</v>
+        <v>0.1366951465606689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0552210807800293</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.560377359390259</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2816429138183594</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.08440017700195312</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.0668797492980957</v>
+        <v>0.1632068157196045</v>
       </c>
     </row>
     <row r="8">
@@ -2138,76 +2045,61 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009367465972900391</v>
+        <v>0.006535530090332031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.04009199142456055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00202488899230957</v>
+        <v>0.04329609870910645</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01821565628051758</v>
+        <v>0.02896237373352051</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003006219863891602</v>
+        <v>0.06067109107971191</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02466487884521484</v>
+        <v>0.05934882164001465</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007001638412475586</v>
+        <v>0.03123927116394043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01363682746887207</v>
+        <v>0.01763057708740234</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01664352416992188</v>
+        <v>0.7231523990631104</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01656699180603027</v>
+        <v>0.09992694854736328</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04711675643920898</v>
+        <v>0.1601536273956299</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01213407516479492</v>
+        <v>0.05105471611022949</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7959694862365723</v>
+        <v>5.698514699935913</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07482099533081055</v>
+        <v>0.6548864841461182</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01206851005554199</v>
+        <v>0.5419483184814453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1414628028869629</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.684279918670654</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.2343814373016357</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.02115082740783691</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.2046477794647217</v>
+        <v>0.565403938293457</v>
       </c>
     </row>
     <row r="9">
@@ -2218,76 +2110,61 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.001025676727294922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001997947692871094</v>
+        <v>0.005470037460327148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.0217139720916748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0019989013671875</v>
+        <v>0.01511096954345703</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006002187728881836</v>
+        <v>0.07131314277648926</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01001715660095215</v>
+        <v>0.09075403213500977</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03504633903503418</v>
+        <v>0.02496337890625</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01350784301757812</v>
+        <v>0.06897974014282227</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02353119850158691</v>
+        <v>0.005009651184082031</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04864001274108887</v>
+        <v>0.1317906379699707</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06207752227783203</v>
+        <v>0.02167344093322754</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1332359313964844</v>
+        <v>0.08077335357666016</v>
       </c>
       <c r="Q9" t="n">
         <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>0.562659740447998</v>
+        <v>0.8060095310211182</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1867454051971436</v>
+        <v>1.957779884338379</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0578453540802002</v>
+        <v>0.1604804992675781</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0738677978515625</v>
-      </c>
-      <c r="V9" t="n">
-        <v>7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.405375480651855</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.430031776428223</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.3648989200592041</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.236346960067749</v>
+        <v>0.1189992427825928</v>
       </c>
     </row>
     <row r="10">
@@ -2298,76 +2175,61 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001003026962280273</v>
+        <v>0.007534265518188477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00300145149230957</v>
+        <v>0.09288406372070312</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003235578536987305</v>
+        <v>0.01526331901550293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01209902763366699</v>
+        <v>0.003031015396118164</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008495092391967773</v>
+        <v>0.04755520820617676</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007509946823120117</v>
+        <v>0.150033712387085</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01050662994384766</v>
+        <v>0.121143102645874</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01703000068664551</v>
+        <v>0.03455495834350586</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0728144645690918</v>
+        <v>0.6829421520233154</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0579991340637207</v>
+        <v>0.2508337497711182</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03155279159545898</v>
+        <v>0.02204227447509766</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03972244262695312</v>
+        <v>0.07385158538818359</v>
       </c>
       <c r="Q10" t="n">
         <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2257177829742432</v>
+        <v>4.846473693847656</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1476390361785889</v>
+        <v>0.5738978385925293</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05295944213867188</v>
+        <v>0.4113175868988037</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02258849143981934</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.30035662651062</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.036790609359741</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.4141368865966797</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.1522119045257568</v>
+        <v>0.7847356796264648</v>
       </c>
     </row>
     <row r="11">
@@ -2378,76 +2240,61 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.008512973785400391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005507230758666992</v>
+        <v>0.008017778396606445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008228778839111328</v>
+        <v>0.02635025978088379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005997657775878906</v>
+        <v>0.01053166389465332</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00353693962097168</v>
+        <v>0.08317899703979492</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02915120124816895</v>
+        <v>0.05411744117736816</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02104520797729492</v>
+        <v>0.03057456016540527</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01025843620300293</v>
+        <v>0.0538172721862793</v>
       </c>
       <c r="L11" t="n">
         <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07917881011962891</v>
+        <v>0.7308614253997803</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07660651206970215</v>
+        <v>0.2665321826934814</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01901865005493164</v>
+        <v>0.03774499893188477</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03026199340820312</v>
+        <v>0.1186063289642334</v>
       </c>
       <c r="Q11" t="n">
         <v>9</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8024075031280518</v>
+        <v>5.130632400512695</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1081905364990234</v>
+        <v>0.5612344741821289</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03714919090270996</v>
+        <v>0.03163909912109375</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09692502021789551</v>
-      </c>
-      <c r="V11" t="n">
-        <v>9</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.988321304321289</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.4485490322113037</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.5512630939483643</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.05633640289306641</v>
+        <v>0.08631229400634766</v>
       </c>
     </row>
     <row r="12">
@@ -2458,76 +2305,61 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002515792846679688</v>
+        <v>0.008387088775634766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.04818940162658691</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006509542465209961</v>
+        <v>0.0255272388458252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004144191741943359</v>
+        <v>0.04692840576171875</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009534358978271484</v>
+        <v>0.06309700012207031</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005484580993652344</v>
+        <v>0.07843565940856934</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002566099166870117</v>
+        <v>0.05166912078857422</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01356720924377441</v>
+        <v>0.03328680992126465</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0482022762298584</v>
+        <v>0.1012692451477051</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06125450134277344</v>
+        <v>0.0676262378692627</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003998041152954102</v>
+        <v>0.4063639640808105</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03259396553039551</v>
+        <v>0.0560615062713623</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5302700996398926</v>
+        <v>3.270133018493652</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07486367225646973</v>
+        <v>0.3321967124938965</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08241462707519531</v>
+        <v>0.07050395011901855</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07216167449951172</v>
-      </c>
-      <c r="V12" t="n">
-        <v>10</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.4313654899597168</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.5442945957183838</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.122189998626709</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.4256930351257324</v>
+        <v>0.1038331985473633</v>
       </c>
     </row>
     <row r="13">
@@ -2538,76 +2370,61 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01053643226623535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0032501220703125</v>
+        <v>0.05539441108703613</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008510112762451172</v>
+        <v>0.01452946662902832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004635095596313477</v>
+        <v>0.03610134124755859</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006974458694458008</v>
+        <v>0.02353429794311523</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004536867141723633</v>
+        <v>0.07723259925842285</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005995035171508789</v>
+        <v>0.06903314590454102</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005123615264892578</v>
+        <v>0.08290886878967285</v>
       </c>
       <c r="L13" t="n">
         <v>11</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05828595161437988</v>
+        <v>0.3562531471252441</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04722833633422852</v>
+        <v>0.140751838684082</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04014420509338379</v>
+        <v>0.01411533355712891</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0201258659362793</v>
+        <v>0.0453944206237793</v>
       </c>
       <c r="Q13" t="n">
         <v>11</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7285430431365967</v>
+        <v>5.850547313690186</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3357763290405273</v>
+        <v>0.131117582321167</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06382012367248535</v>
+        <v>0.2999458312988281</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03646469116210938</v>
-      </c>
-      <c r="V13" t="n">
-        <v>11</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.605139970779419</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.184358358383179</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.321983814239502</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.05387473106384277</v>
+        <v>0.3153455257415771</v>
       </c>
     </row>
     <row r="14">
@@ -2618,76 +2435,61 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.007561206817626953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005003929138183594</v>
+        <v>0.003956317901611328</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005999088287353516</v>
+        <v>0.007028102874755859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01252222061157227</v>
+        <v>0.01215291023254395</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009218931198120117</v>
+        <v>0.08017969131469727</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007538318634033203</v>
+        <v>0.1668045520782471</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01514077186584473</v>
+        <v>0.06636953353881836</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03044319152832031</v>
+        <v>0.1384494304656982</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05642318725585938</v>
+        <v>0.7872517108917236</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0240790843963623</v>
+        <v>0.1066820621490479</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01061153411865234</v>
+        <v>0.04586124420166016</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05489301681518555</v>
+        <v>0.1598162651062012</v>
       </c>
       <c r="Q14" t="n">
         <v>12</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4419736862182617</v>
+        <v>5.431007146835327</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1396450996398926</v>
+        <v>0.2514660358428955</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3199782371520996</v>
+        <v>0.5903830528259277</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07494354248046875</v>
-      </c>
-      <c r="V14" t="n">
-        <v>12</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.973099946975708</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.2403371334075928</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.2897026538848877</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.03561019897460938</v>
+        <v>0.1593005657196045</v>
       </c>
     </row>
     <row r="15">
@@ -2698,76 +2500,61 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.009488105773925781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0105137825012207</v>
+        <v>0.01452016830444336</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003076553344726562</v>
+        <v>0.006999969482421875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002973556518554688</v>
+        <v>0.03155159950256348</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006003618240356445</v>
+        <v>0.04459547996520996</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01154518127441406</v>
+        <v>0.1429884433746338</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.04583549499511719</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01359677314758301</v>
+        <v>0.04455685615539551</v>
       </c>
       <c r="L15" t="n">
         <v>13</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09090352058410645</v>
+        <v>0.5337049961090088</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0317075252532959</v>
+        <v>0.03662919998168945</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01556181907653809</v>
+        <v>0.06507730484008789</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06235122680664062</v>
+        <v>0.05158782005310059</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3814487457275391</v>
+        <v>0.3042428493499756</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3119986057281494</v>
+        <v>1.196009397506714</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06690025329589844</v>
+        <v>0.08211541175842285</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06000590324401855</v>
-      </c>
-      <c r="V15" t="n">
-        <v>13</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.2111673355102539</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.415333271026611</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.4571735858917236</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.2056481838226318</v>
+        <v>0.471139669418335</v>
       </c>
     </row>
     <row r="16">
@@ -2778,76 +2565,61 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.009562253952026367</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003509283065795898</v>
+        <v>0.002513885498046875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001998662948608398</v>
+        <v>0.01802873611450195</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003027915954589844</v>
+        <v>0.005504608154296875</v>
       </c>
       <c r="G16" t="n">
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.01151490211486816</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02002954483032227</v>
+        <v>0.1464769840240479</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01614880561828613</v>
+        <v>0.08409261703491211</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004561901092529297</v>
+        <v>0.03107953071594238</v>
       </c>
       <c r="L16" t="n">
         <v>14</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02194666862487793</v>
+        <v>0.3662018775939941</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03364443778991699</v>
+        <v>0.3792290687561035</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02270078659057617</v>
+        <v>0.05175137519836426</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03011274337768555</v>
+        <v>0.09422707557678223</v>
       </c>
       <c r="Q16" t="n">
         <v>14</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6417262554168701</v>
+        <v>6.044884443283081</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1216857433319092</v>
+        <v>0.6773800849914551</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03782296180725098</v>
+        <v>0.1172580718994141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02941703796386719</v>
-      </c>
-      <c r="V16" t="n">
-        <v>14</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.048957586288452</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.322473287582397</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.5637269020080566</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.0732269287109375</v>
+        <v>0.4780352115631104</v>
       </c>
     </row>
     <row r="17">
@@ -2858,76 +2630,61 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.01004862785339355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006997585296630859</v>
+        <v>0.03054070472717285</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004999637603759766</v>
+        <v>0.05111908912658691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002537250518798828</v>
+        <v>0.01253581047058105</v>
       </c>
       <c r="G17" t="n">
         <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007545232772827148</v>
+        <v>0.07810163497924805</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005479335784912109</v>
+        <v>0.1102073192596436</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05663084983825684</v>
+        <v>0.04614734649658203</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03005576133728027</v>
+        <v>0.06946372985839844</v>
       </c>
       <c r="L17" t="n">
         <v>15</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.198981761932373</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01304841041564941</v>
+        <v>0.184333324432373</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07793855667114258</v>
+        <v>0.0885927677154541</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03542017936706543</v>
+        <v>0.1179523468017578</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2402403354644775</v>
+        <v>7.686801433563232</v>
       </c>
       <c r="S17" t="n">
-        <v>0.138641357421875</v>
+        <v>0.09642839431762695</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02772831916809082</v>
+        <v>0.1850244998931885</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04862594604492188</v>
-      </c>
-      <c r="V17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6.904032230377197</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.059451818466187</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.6034665107727051</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.197669506072998</v>
+        <v>0.4018971920013428</v>
       </c>
     </row>
     <row r="18">
@@ -2938,76 +2695,61 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.008510351181030273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003507614135742188</v>
+        <v>0.03004550933837891</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006508111953735352</v>
+        <v>0.01302146911621094</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003022909164428711</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="G18" t="n">
         <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006534099578857422</v>
+        <v>0.01671934127807617</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.03915619850158691</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005563974380493164</v>
+        <v>0.03720927238464355</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02412652969360352</v>
+        <v>0.02001857757568359</v>
       </c>
       <c r="L18" t="n">
         <v>16</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03968262672424316</v>
+        <v>0.7383747100830078</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01509380340576172</v>
+        <v>0.6617324352264404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04175186157226562</v>
+        <v>0.1297206878662109</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04169034957885742</v>
+        <v>0.03543734550476074</v>
       </c>
       <c r="Q18" t="n">
         <v>16</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6953096389770508</v>
+        <v>1.956306934356689</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2756612300872803</v>
+        <v>0.4514117240905762</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04871416091918945</v>
+        <v>0.1517729759216309</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01564955711364746</v>
-      </c>
-      <c r="V18" t="n">
-        <v>16</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.626338958740234</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.4272212982177734</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.6918401718139648</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1908671855926514</v>
+        <v>0.0305790901184082</v>
       </c>
     </row>
     <row r="19">
@@ -3018,76 +2760,61 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.005502223968505859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004003047943115234</v>
+        <v>0.003345966339111328</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002999305725097656</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002568721771240234</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="G19" t="n">
         <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01159024238586426</v>
+        <v>0.0526585578918457</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01914191246032715</v>
+        <v>0.01212382316589355</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01201581954956055</v>
+        <v>0.02485942840576172</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01510357856750488</v>
+        <v>0.02602314949035645</v>
       </c>
       <c r="L19" t="n">
         <v>17</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01398515701293945</v>
+        <v>0.8897109031677246</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01353693008422852</v>
+        <v>0.04867959022521973</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1016795635223389</v>
+        <v>0.1595730781555176</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01534199714660645</v>
+        <v>0.1121029853820801</v>
       </c>
       <c r="Q19" t="n">
         <v>17</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3813581466674805</v>
+        <v>2.755563259124756</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2412617206573486</v>
+        <v>0.6203184127807617</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1145398616790771</v>
+        <v>0.2428097724914551</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08118677139282227</v>
-      </c>
-      <c r="V19" t="n">
-        <v>17</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.78302526473999</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.01053285598754883</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.1209268569946289</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.2347812652587891</v>
+        <v>0.5725493431091309</v>
       </c>
     </row>
     <row r="20">
@@ -3098,76 +2825,61 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.01251482963562012</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0185236930847168</v>
+        <v>0.01671481132507324</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008508920669555664</v>
+        <v>0.007022857666015625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007489919662475586</v>
+        <v>0.02054548263549805</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009512424468994141</v>
+        <v>0.003999948501586914</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0075531005859375</v>
+        <v>0.02109813690185547</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005510807037353516</v>
+        <v>0.07036304473876953</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02601051330566406</v>
+        <v>0.02780747413635254</v>
       </c>
       <c r="L20" t="n">
         <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07049965858459473</v>
+        <v>0.0934445858001709</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1201596260070801</v>
+        <v>0.06112957000732422</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01655912399291992</v>
+        <v>0.111732006072998</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03006076812744141</v>
+        <v>0.06973171234130859</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01500964164733887</v>
+        <v>4.449178695678711</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2028253078460693</v>
+        <v>2.788022041320801</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03175592422485352</v>
+        <v>0.09160637855529785</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02265644073486328</v>
-      </c>
-      <c r="V20" t="n">
-        <v>18</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.953317642211914</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.1872975826263428</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.5408663749694824</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.6065597534179688</v>
+        <v>0.3482885360717773</v>
       </c>
     </row>
     <row r="21">
@@ -3178,76 +2890,61 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.0135185718536377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004026651382446289</v>
+        <v>0.00499725341796875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007502317428588867</v>
+        <v>0.02256107330322266</v>
       </c>
       <c r="G21" t="n">
         <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005027294158935547</v>
+        <v>0.02524089813232422</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006001710891723633</v>
+        <v>0.00850987434387207</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01259183883666992</v>
+        <v>0.1294653415679932</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01265573501586914</v>
+        <v>0.08908867835998535</v>
       </c>
       <c r="L21" t="n">
         <v>19</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002031087875366211</v>
+        <v>0.6766409873962402</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1002120971679688</v>
+        <v>0.2382626533508301</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1217141151428223</v>
+        <v>0.0455780029296875</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07972073554992676</v>
+        <v>0.1082470417022705</v>
       </c>
       <c r="Q21" t="n">
         <v>19</v>
       </c>
       <c r="R21" t="n">
-        <v>0.006006002426147461</v>
+        <v>4.849506378173828</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1087098121643066</v>
+        <v>0.2878029346466064</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2392799854278564</v>
+        <v>0.1972103118896484</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01353764533996582</v>
-      </c>
-      <c r="V21" t="n">
-        <v>19</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.6454956531524658</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.169885158538818</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.9250748157501221</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.1967310905456543</v>
+        <v>0.4328780174255371</v>
       </c>
     </row>
     <row r="22">
@@ -3258,76 +2955,61 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.007096052169799805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002000570297241211</v>
+        <v>0.002197027206420898</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007940530776977539</v>
+        <v>0.008588790893554688</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002342700958251953</v>
+        <v>0.02012920379638672</v>
       </c>
       <c r="G22" t="n">
         <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.03450965881347656</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05321049690246582</v>
+        <v>0.01102447509765625</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02043414115905762</v>
+        <v>0.09857511520385742</v>
       </c>
       <c r="K22" t="n">
-        <v>0.007578611373901367</v>
+        <v>0.04758453369140625</v>
       </c>
       <c r="L22" t="n">
         <v>20</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02652525901794434</v>
+        <v>0.04323649406433105</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02801132202148438</v>
+        <v>0.3517441749572754</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01515460014343262</v>
+        <v>0.0303339958190918</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01603865623474121</v>
+        <v>0.0767369270324707</v>
       </c>
       <c r="Q22" t="n">
         <v>20</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9343571662902832</v>
+        <v>0.5649967193603516</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1696958541870117</v>
+        <v>1.166003465652466</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0835716724395752</v>
+        <v>0.01683235168457031</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06029558181762695</v>
-      </c>
-      <c r="V22" t="n">
-        <v>20</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3.678623676300049</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.007966279983520508</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.0657958984375</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.07029628753662109</v>
+        <v>0.05889797210693359</v>
       </c>
     </row>
     <row r="23">
@@ -3338,76 +3020,61 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.007539033889770508</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.01056408882141113</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006508827209472656</v>
+        <v>0.01862096786499023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.01479220390319824</v>
       </c>
       <c r="G23" t="n">
         <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005115747451782227</v>
+        <v>0.06615519523620605</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0357506275177002</v>
+        <v>0.05266523361206055</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005993127822875977</v>
+        <v>0.02506422996520996</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01117420196533203</v>
+        <v>0.01253247261047363</v>
       </c>
       <c r="L23" t="n">
         <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04420709609985352</v>
+        <v>0.8955342769622803</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0610966682434082</v>
+        <v>0.3424794673919678</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01730561256408691</v>
+        <v>0.03153371810913086</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02002048492431641</v>
+        <v>0.01667380332946777</v>
       </c>
       <c r="Q23" t="n">
         <v>21</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5195448398590088</v>
+        <v>4.497156143188477</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2652952671051025</v>
+        <v>0.1358602046966553</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1116640567779541</v>
+        <v>0.5343098640441895</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0556941032409668</v>
-      </c>
-      <c r="V23" t="n">
-        <v>21</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.556069135665894</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.2647202014923096</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.2503726482391357</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.1328108310699463</v>
+        <v>0.5317516326904297</v>
       </c>
     </row>
     <row r="24">
@@ -3418,76 +3085,61 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.003024816513061523</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01207208633422852</v>
+        <v>0.004001140594482422</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002001047134399414</v>
+        <v>0.00955653190612793</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006560564041137695</v>
+        <v>0.0160980224609375</v>
       </c>
       <c r="G24" t="n">
         <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00756382942199707</v>
+        <v>0.1112699508666992</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03569364547729492</v>
+        <v>0.02349185943603516</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00964808464050293</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02309799194335938</v>
+        <v>0.1442739963531494</v>
       </c>
       <c r="L24" t="n">
         <v>22</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02370572090148926</v>
+        <v>0.4995186328887939</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1574835777282715</v>
+        <v>0.0394749641418457</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05158352851867676</v>
+        <v>0.3501744270324707</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08779191970825195</v>
+        <v>0.01205539703369141</v>
       </c>
       <c r="Q24" t="n">
         <v>22</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9036052227020264</v>
+        <v>0.08910727500915527</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06847167015075684</v>
+        <v>0.08386015892028809</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1610620021820068</v>
+        <v>0.1582989692687988</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05888772010803223</v>
-      </c>
-      <c r="V24" t="n">
-        <v>22</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.180903673171997</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.3821613788604736</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.1201169490814209</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.2225828170776367</v>
+        <v>0.2528867721557617</v>
       </c>
     </row>
     <row r="25">
@@ -3498,76 +3150,61 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.009071588516235352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003505468368530273</v>
+        <v>0.02061057090759277</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.009510993957519531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.02322745323181152</v>
       </c>
       <c r="G25" t="n">
         <v>23</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.04585170745849609</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005567550659179688</v>
+        <v>0.01256418228149414</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007962942123413086</v>
+        <v>0.01224732398986816</v>
       </c>
       <c r="K25" t="n">
-        <v>0.005157947540283203</v>
+        <v>0.03912711143493652</v>
       </c>
       <c r="L25" t="n">
         <v>23</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007565736770629883</v>
+        <v>0.7553098201751709</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06476759910583496</v>
+        <v>0.06592178344726562</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01351070404052734</v>
+        <v>0.06176257133483887</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03015804290771484</v>
+        <v>0.09543418884277344</v>
       </c>
       <c r="Q25" t="n">
         <v>23</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6738569736480713</v>
+        <v>2.657418727874756</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04825496673583984</v>
+        <v>0.2578318119049072</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3260412216186523</v>
+        <v>0.03533625602722168</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08099985122680664</v>
-      </c>
-      <c r="V25" t="n">
-        <v>23</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.3844294548034668</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.03663086891174316</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.05475497245788574</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.07016706466674805</v>
+        <v>0.3172316551208496</v>
       </c>
     </row>
     <row r="26">
@@ -3578,76 +3215,61 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003004074096679688</v>
+        <v>0.01151132583618164</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005041122436523438</v>
+        <v>0.01259112358093262</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004508256912231445</v>
+        <v>0.004984617233276367</v>
       </c>
       <c r="G26" t="n">
         <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006570100784301758</v>
+        <v>0.07943892478942871</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02009820938110352</v>
+        <v>0.09386634826660156</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02918577194213867</v>
+        <v>0.02865886688232422</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01566362380981445</v>
+        <v>0.02469325065612793</v>
       </c>
       <c r="L26" t="n">
         <v>24</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03837180137634277</v>
+        <v>0.1805171966552734</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09897613525390625</v>
+        <v>0.01909661293029785</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09228324890136719</v>
+        <v>0.03737068176269531</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01901745796203613</v>
+        <v>0.06334972381591797</v>
       </c>
       <c r="Q26" t="n">
         <v>24</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4641251564025879</v>
+        <v>1.28500771522522</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1775877475738525</v>
+        <v>0.102470874786377</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04225254058837891</v>
+        <v>0.1428256034851074</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1077544689178467</v>
-      </c>
-      <c r="V26" t="n">
-        <v>24</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.264728546142578</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.6775705814361572</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.1420047283172607</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.2332150936126709</v>
+        <v>0.03853607177734375</v>
       </c>
     </row>
     <row r="27">
@@ -3658,76 +3280,61 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.007319211959838867</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002998590469360352</v>
+        <v>0.003506660461425781</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003997087478637695</v>
+        <v>0.04688429832458496</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003000020980834961</v>
+        <v>0.01053714752197266</v>
       </c>
       <c r="G27" t="n">
         <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006101369857788086</v>
+        <v>0.01312804222106934</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.06662416458129883</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02212929725646973</v>
+        <v>0.1722381114959717</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009946346282958984</v>
+        <v>0.0197453498840332</v>
       </c>
       <c r="L27" t="n">
         <v>25</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04587197303771973</v>
+        <v>0.3296525478363037</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1006920337677002</v>
+        <v>0.150460958480835</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03464031219482422</v>
+        <v>0.03113603591918945</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06853485107421875</v>
+        <v>0.187631368637085</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1527535915374756</v>
+        <v>6.900056838989258</v>
       </c>
       <c r="S27" t="n">
-        <v>0.09884285926818848</v>
+        <v>0.8932054042816162</v>
       </c>
       <c r="T27" t="n">
-        <v>0.09599399566650391</v>
+        <v>0.7999355792999268</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03252768516540527</v>
-      </c>
-      <c r="V27" t="n">
-        <v>25</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6.350404262542725</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.09839558601379395</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.02112245559692383</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.2186403274536133</v>
+        <v>0.1913707256317139</v>
       </c>
     </row>
     <row r="28">
@@ -3738,76 +3345,61 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001502037048339844</v>
+        <v>0.007535219192504883</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03147506713867188</v>
+        <v>0.0196080207824707</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004114627838134766</v>
+        <v>0.006349325180053711</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007509469985961914</v>
+        <v>0.02956771850585938</v>
       </c>
       <c r="G28" t="n">
         <v>26</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01053261756896973</v>
+        <v>0.01609992980957031</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02234292030334473</v>
+        <v>0.06768321990966797</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02805685997009277</v>
+        <v>0.07396078109741211</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007509946823120117</v>
+        <v>0.06486845016479492</v>
       </c>
       <c r="L28" t="n">
         <v>26</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07867336273193359</v>
+        <v>0.4151387214660645</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03022575378417969</v>
+        <v>0.0437159538269043</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02518916130065918</v>
+        <v>0.03994083404541016</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02566266059875488</v>
+        <v>0.08600735664367676</v>
       </c>
       <c r="Q28" t="n">
         <v>26</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2367057800292969</v>
+        <v>0.9052445888519287</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04962706565856934</v>
+        <v>0.3375892639160156</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06726193428039551</v>
+        <v>0.5647900104522705</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06204319000244141</v>
-      </c>
-      <c r="V28" t="n">
-        <v>26</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.4230947494506836</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.0912473201751709</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.1276214122772217</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.1592590808868408</v>
+        <v>0.1078834533691406</v>
       </c>
     </row>
     <row r="29">
@@ -3818,76 +3410,61 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0030059814453125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004564285278320312</v>
+        <v>0.04120063781738281</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01013040542602539</v>
+        <v>0.0075836181640625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.007561445236206055</v>
+        <v>0.008542060852050781</v>
       </c>
       <c r="G29" t="n">
         <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01155281066894531</v>
+        <v>0.04175090789794922</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01204800605773926</v>
+        <v>0.04233264923095703</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02455997467041016</v>
+        <v>0.05359840393066406</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004506111145019531</v>
+        <v>0.03457760810852051</v>
       </c>
       <c r="L29" t="n">
         <v>27</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08647274971008301</v>
+        <v>0.799809455871582</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01612758636474609</v>
+        <v>0.3138589859008789</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01242470741271973</v>
+        <v>0.05443596839904785</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04857301712036133</v>
+        <v>0.008476018905639648</v>
       </c>
       <c r="Q29" t="n">
         <v>27</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7305552959442139</v>
+        <v>4.549747705459595</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1647648811340332</v>
+        <v>0.2319338321685791</v>
       </c>
       <c r="T29" t="n">
-        <v>0.005003452301025391</v>
+        <v>0.2206263542175293</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02061295509338379</v>
-      </c>
-      <c r="V29" t="n">
-        <v>27</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.9880671501159668</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.054070234298706</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.6292304992675781</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.6310343742370605</v>
+        <v>0.09363555908203125</v>
       </c>
     </row>
     <row r="30">
@@ -3898,76 +3475,61 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.003024816513061523</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001973390579223633</v>
+        <v>0.01651406288146973</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00300288200378418</v>
+        <v>0.009563684463500977</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01159334182739258</v>
+        <v>0.02994418144226074</v>
       </c>
       <c r="G30" t="n">
         <v>28</v>
       </c>
       <c r="H30" t="n">
-        <v>0.009535312652587891</v>
+        <v>0.09006786346435547</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03226137161254883</v>
+        <v>0.0261380672454834</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007026910781860352</v>
+        <v>0.05191540718078613</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01251125335693359</v>
+        <v>0.01282906532287598</v>
       </c>
       <c r="L30" t="n">
         <v>28</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0345306396484375</v>
+        <v>0.4772696495056152</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01656627655029297</v>
+        <v>0.2415170669555664</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2455780506134033</v>
+        <v>0.2731621265411377</v>
       </c>
       <c r="P30" t="n">
-        <v>0.02551722526550293</v>
+        <v>0.5565972328186035</v>
       </c>
       <c r="Q30" t="n">
         <v>28</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05568814277648926</v>
+        <v>0.9297552108764648</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0733635425567627</v>
+        <v>0.2265987396240234</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1135520935058594</v>
+        <v>0.1139671802520752</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05200600624084473</v>
-      </c>
-      <c r="V30" t="n">
-        <v>28</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.155018091201782</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.9959468841552734</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.0982205867767334</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.8178281784057617</v>
+        <v>0.296497106552124</v>
       </c>
     </row>
     <row r="31">
@@ -3978,76 +3540,238 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002006769180297852</v>
+        <v>0.003000259399414062</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004622459411621094</v>
+        <v>0.004098176956176758</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003999471664428711</v>
+        <v>0.05135011672973633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.01248669624328613</v>
       </c>
       <c r="G31" t="n">
         <v>29</v>
       </c>
       <c r="H31" t="n">
-        <v>0.007477521896362305</v>
+        <v>0.05704855918884277</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0231316089630127</v>
+        <v>0.02875208854675293</v>
       </c>
       <c r="J31" t="n">
-        <v>0.007561206817626953</v>
+        <v>0.01865053176879883</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01550912857055664</v>
+        <v>0.05118560791015625</v>
       </c>
       <c r="L31" t="n">
         <v>29</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01608681678771973</v>
+        <v>0.8472146987915039</v>
       </c>
       <c r="N31" t="n">
-        <v>0.02360677719116211</v>
+        <v>0.1276898384094238</v>
       </c>
       <c r="O31" t="n">
-        <v>0.006398200988769531</v>
+        <v>0.1213498115539551</v>
       </c>
       <c r="P31" t="n">
-        <v>0.119727611541748</v>
+        <v>0.1229639053344727</v>
       </c>
       <c r="Q31" t="n">
         <v>29</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3098781108856201</v>
+        <v>3.85623574256897</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3906195163726807</v>
+        <v>1.518797159194946</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2077374458312988</v>
+        <v>0.1404988765716553</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07852721214294434</v>
-      </c>
-      <c r="V31" t="n">
-        <v>29</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3.840356588363647</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.09208822250366211</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.3398962020874023</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.196394681930542</v>
+        <v>0.07261967658996582</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.006550470987955729</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.021034042040507</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01872578461964925</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01627438068389893</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.05112957954406738</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06196563243865967</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.05235738754272461</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.05052088101704915</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4746864159901937</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1807577768961589</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.09340912501017253</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1203118324279785</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.936567767461141</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.6517212549845378</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.250589140256246</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2552594343821208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>genetic_5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>genetic_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>genetic_20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.006550470987955729</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.021034042040507</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01872578461964925</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01627438068389893</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05112957954406738</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06196563243865967</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05235738754272461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05052088101704915</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4746864159901937</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1807577768961589</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09340912501017253</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1203118324279785</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.936567767461141</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6517212549845378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.250589140256246</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2552594343821208</v>
       </c>
     </row>
   </sheetData>
